--- a/biology/Botanique/Philonotis_calcarea/Philonotis_calcarea.xlsx
+++ b/biology/Botanique/Philonotis_calcarea/Philonotis_calcarea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Philonotis calcarea est une espèce de la famille des Bartramiaceae. Son nom vernaculaire est
 en anglais thick-nerved apple-moss (en français : mousse de pommier à nervures épaisses).
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une espèce de mousse acrocarpe[1],[2]. Les rameaux dressés portent de petites feuilles de 2 à 3 mm qui ont tendance à se tourner toutes du même côté 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une espèce de mousse acrocarpe,. Les rameaux dressés portent de petites feuilles de 2 à 3 mm qui ont tendance à se tourner toutes du même côté 
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On la trouve dans les lieux humides, en milieu calcaire (seule espèce du genre à être calcicole)[1].
-Elle est originaire d'Europe et d'Amérique du Nord[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On la trouve dans les lieux humides, en milieu calcaire (seule espèce du genre à être calcicole).
+Elle est originaire d'Europe et d'Amérique du Nord.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (5 janvier 2024)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (5 janvier 2024) :
 Philonotis calcarea var. calcarea
 Philonotis calcarea var. orthophylla Schiffn.
 Philonotis calcarea var. seriatifolia Schiffn.</t>
@@ -608,11 +626,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Philonotis calcarea (Bruch &amp; Schimp.) Schimp.[3].
-L'espèce a été initialement classée dans le genre Bartramia sous le basionyme Bartramia calcarea Bruch &amp; Schimp.[3].
-Philonotis calcarea a pour synonymes[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Philonotis calcarea (Bruch &amp; Schimp.) Schimp..
+L'espèce a été initialement classée dans le genre Bartramia sous le basionyme Bartramia calcarea Bruch &amp; Schimp..
+Philonotis calcarea a pour synonymes :
 Bartramia calcarea Bruch &amp; Schimp.
 Philonotis calcarea f. aquatica (Dism.) Loeske &amp; E.Bauer
 Philonotis calcarea f. aquatica (Dism.) Loeske &amp; E.Bauer ex Podp.
